--- a/Code/Results/Cases/Case_3_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003482705540278</v>
+        <v>1.03208554907185</v>
       </c>
       <c r="D2">
-        <v>1.019535947020009</v>
+        <v>1.036464701325385</v>
       </c>
       <c r="E2">
-        <v>1.009359313790593</v>
+        <v>1.031565745319425</v>
       </c>
       <c r="F2">
-        <v>0.9662367652690473</v>
+        <v>1.040925758230683</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040387470516413</v>
+        <v>1.036856252633784</v>
       </c>
       <c r="J2">
-        <v>1.025559746135237</v>
+        <v>1.037217709288813</v>
       </c>
       <c r="K2">
-        <v>1.030729662301229</v>
+        <v>1.039258366917583</v>
       </c>
       <c r="L2">
-        <v>1.020689780435994</v>
+        <v>1.034373494534126</v>
       </c>
       <c r="M2">
-        <v>0.9781874151895946</v>
+        <v>1.043706724281097</v>
       </c>
       <c r="N2">
-        <v>1.01214694891982</v>
+        <v>1.016343574211428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008306220000556</v>
+        <v>1.033060605156285</v>
       </c>
       <c r="D3">
-        <v>1.023244257405223</v>
+        <v>1.037225263268745</v>
       </c>
       <c r="E3">
-        <v>1.013241238086186</v>
+        <v>1.032395492424884</v>
       </c>
       <c r="F3">
-        <v>0.9781151768447386</v>
+        <v>1.043154079527121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042268932923568</v>
+        <v>1.037163262644874</v>
       </c>
       <c r="J3">
-        <v>1.028572982058636</v>
+        <v>1.037834782222525</v>
       </c>
       <c r="K3">
-        <v>1.033588117272113</v>
+        <v>1.039828665962222</v>
       </c>
       <c r="L3">
-        <v>1.023707452420017</v>
+        <v>1.03501177531797</v>
       </c>
       <c r="M3">
-        <v>0.9890359541579364</v>
+        <v>1.04574184721182</v>
       </c>
       <c r="N3">
-        <v>1.01317905662402</v>
+        <v>1.016552437025543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.0113508447094</v>
+        <v>1.033691436801305</v>
       </c>
       <c r="D4">
-        <v>1.025584731810211</v>
+        <v>1.037717193137872</v>
       </c>
       <c r="E4">
-        <v>1.015696890215809</v>
+        <v>1.032932661753921</v>
       </c>
       <c r="F4">
-        <v>0.9854665008370049</v>
+        <v>1.04459057057502</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043439410390881</v>
+        <v>1.037360385180794</v>
       </c>
       <c r="J4">
-        <v>1.030468584944661</v>
+        <v>1.038233380728532</v>
       </c>
       <c r="K4">
-        <v>1.035383874683303</v>
+        <v>1.040196822972799</v>
       </c>
       <c r="L4">
-        <v>1.025609488200031</v>
+        <v>1.035424408265053</v>
       </c>
       <c r="M4">
-        <v>0.9957435560828349</v>
+        <v>1.047053002973725</v>
       </c>
       <c r="N4">
-        <v>1.013828055665541</v>
+        <v>1.016687252024688</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012613386607313</v>
+        <v>1.033956616738723</v>
       </c>
       <c r="D5">
-        <v>1.026555240515952</v>
+        <v>1.037923952154809</v>
       </c>
       <c r="E5">
-        <v>1.016716450862119</v>
+        <v>1.033158552096423</v>
       </c>
       <c r="F5">
-        <v>0.9884836944399422</v>
+        <v>1.045193215283441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043920823125609</v>
+        <v>1.037442889893925</v>
       </c>
       <c r="J5">
-        <v>1.031253159401814</v>
+        <v>1.038400787423748</v>
       </c>
       <c r="K5">
-        <v>1.036126554127049</v>
+        <v>1.040351390136164</v>
       </c>
       <c r="L5">
-        <v>1.026397574681498</v>
+        <v>1.035597789361537</v>
       </c>
       <c r="M5">
-        <v>0.998494981588124</v>
+        <v>1.047602877182719</v>
       </c>
       <c r="N5">
-        <v>1.014096591883694</v>
+        <v>1.016743848660431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012824376145059</v>
+        <v>1.034001140374573</v>
       </c>
       <c r="D6">
-        <v>1.026717425170562</v>
+        <v>1.037958665090237</v>
       </c>
       <c r="E6">
-        <v>1.016886907332869</v>
+        <v>1.033196483861783</v>
       </c>
       <c r="F6">
-        <v>0.9889861777774127</v>
+        <v>1.045294329252063</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044001045320698</v>
+        <v>1.037456721402795</v>
       </c>
       <c r="J6">
-        <v>1.031384186586786</v>
+        <v>1.038428886143951</v>
       </c>
       <c r="K6">
-        <v>1.036250551774001</v>
+        <v>1.040377330587475</v>
       </c>
       <c r="L6">
-        <v>1.02652923770425</v>
+        <v>1.035626895560714</v>
       </c>
       <c r="M6">
-        <v>0.9989531106288707</v>
+        <v>1.047695126023908</v>
       </c>
       <c r="N6">
-        <v>1.01414143363245</v>
+        <v>1.016753346822515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011367782169365</v>
+        <v>1.033694980232587</v>
       </c>
       <c r="D7">
-        <v>1.025597751666123</v>
+        <v>1.037719956050979</v>
       </c>
       <c r="E7">
-        <v>1.015710563082888</v>
+        <v>1.032935679858498</v>
       </c>
       <c r="F7">
-        <v>0.9855070964022759</v>
+        <v>1.04459862803955</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043445884198651</v>
+        <v>1.037361489047536</v>
       </c>
       <c r="J7">
-        <v>1.030479116156805</v>
+        <v>1.038235618268879</v>
       </c>
       <c r="K7">
-        <v>1.035393845771794</v>
+        <v>1.040198889115286</v>
       </c>
       <c r="L7">
-        <v>1.025620063222002</v>
+        <v>1.035426725343931</v>
       </c>
       <c r="M7">
-        <v>0.9957805820739839</v>
+        <v>1.047060355631539</v>
       </c>
       <c r="N7">
-        <v>1.013831660507347</v>
+        <v>1.016688008584229</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005129245405262</v>
+        <v>1.032415094098977</v>
       </c>
       <c r="D8">
-        <v>1.02080186603327</v>
+        <v>1.036721779565704</v>
       </c>
       <c r="E8">
-        <v>1.010683286800897</v>
+        <v>1.031846107059873</v>
       </c>
       <c r="F8">
-        <v>0.9703248939116055</v>
+        <v>1.04167996375131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041033416835747</v>
+        <v>1.036960326539478</v>
       </c>
       <c r="J8">
-        <v>1.026589698243035</v>
+        <v>1.037426395125926</v>
       </c>
       <c r="K8">
-        <v>1.031707246449652</v>
+        <v>1.039451281748593</v>
       </c>
       <c r="L8">
-        <v>1.02172046490414</v>
+        <v>1.034589282998067</v>
       </c>
       <c r="M8">
-        <v>0.9819224244872449</v>
+        <v>1.044395703054612</v>
       </c>
       <c r="N8">
-        <v>1.012499788657065</v>
+        <v>1.016414229481609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9935046627524284</v>
+        <v>1.03015899758677</v>
       </c>
       <c r="D9">
-        <v>1.011862184988539</v>
+        <v>1.034961266326452</v>
       </c>
       <c r="E9">
-        <v>1.001360375789359</v>
+        <v>1.029928172868494</v>
       </c>
       <c r="F9">
-        <v>0.9406372286531686</v>
+        <v>1.036494223633649</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036392008185633</v>
+        <v>1.036241613162507</v>
       </c>
       <c r="J9">
-        <v>1.019288891694939</v>
+        <v>1.035995125924091</v>
       </c>
       <c r="K9">
-        <v>1.02476569416752</v>
+        <v>1.038127236314369</v>
       </c>
       <c r="L9">
-        <v>1.014431420336325</v>
+        <v>1.033110685784543</v>
       </c>
       <c r="M9">
-        <v>0.9547729183511883</v>
+        <v>1.03965519003275</v>
       </c>
       <c r="N9">
-        <v>1.009997843061781</v>
+        <v>1.015929235084259</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.98525649683864</v>
+        <v>1.028654342798618</v>
       </c>
       <c r="D10">
-        <v>1.00551347553363</v>
+        <v>1.033786466836914</v>
       </c>
       <c r="E10">
-        <v>0.9947778792618654</v>
+        <v>1.028650889568175</v>
       </c>
       <c r="F10">
-        <v>0.9182192274949651</v>
+        <v>1.033006306175898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032983056718062</v>
+        <v>1.035754428627578</v>
       </c>
       <c r="J10">
-        <v>1.014067533381776</v>
+        <v>1.035037316330466</v>
       </c>
       <c r="K10">
-        <v>1.019783890950609</v>
+        <v>1.03723999279155</v>
       </c>
       <c r="L10">
-        <v>1.009242065212886</v>
+        <v>1.032122952792801</v>
       </c>
       <c r="M10">
-        <v>0.9342406752187589</v>
+        <v>1.036462635075604</v>
       </c>
       <c r="N10">
-        <v>1.008207951797559</v>
+        <v>1.015604170377068</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.981546196725958</v>
+        <v>1.028002653662186</v>
       </c>
       <c r="D11">
-        <v>1.002654937580666</v>
+        <v>1.033277486839218</v>
       </c>
       <c r="E11">
-        <v>0.9918249918261036</v>
+        <v>1.028098122217212</v>
       </c>
       <c r="F11">
-        <v>0.9076866833865214</v>
+        <v>1.031488240686428</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031416836308006</v>
+        <v>1.035541541923221</v>
       </c>
       <c r="J11">
-        <v>1.011707349630233</v>
+        <v>1.03462169944087</v>
       </c>
       <c r="K11">
-        <v>1.017526958749203</v>
+        <v>1.036854712634316</v>
       </c>
       <c r="L11">
-        <v>1.006902741280954</v>
+        <v>1.031694768680727</v>
       </c>
       <c r="M11">
-        <v>0.9245881246824877</v>
+        <v>1.035072151067889</v>
       </c>
       <c r="N11">
-        <v>1.007398936116932</v>
+        <v>1.015462998804442</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9801450047169105</v>
+        <v>1.027760561118529</v>
       </c>
       <c r="D12">
-        <v>1.001574831639607</v>
+        <v>1.033088385147969</v>
       </c>
       <c r="E12">
-        <v>0.9907110847150539</v>
+        <v>1.027892844847037</v>
       </c>
       <c r="F12">
-        <v>0.903627019198594</v>
+        <v>1.030923155361263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030819806714944</v>
+        <v>1.035462173916887</v>
       </c>
       <c r="J12">
-        <v>1.010814099745952</v>
+        <v>1.034467187467568</v>
       </c>
       <c r="K12">
-        <v>1.01667192242708</v>
+        <v>1.036711436041775</v>
       </c>
       <c r="L12">
-        <v>1.006018435990069</v>
+        <v>1.031535647562483</v>
       </c>
       <c r="M12">
-        <v>0.9208669064617017</v>
+        <v>1.034554410963291</v>
       </c>
       <c r="N12">
-        <v>1.007092779527486</v>
+        <v>1.015410498498324</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9804466467358514</v>
+        <v>1.027812492001655</v>
       </c>
       <c r="D13">
-        <v>1.001807381651563</v>
+        <v>1.033128950106709</v>
       </c>
       <c r="E13">
-        <v>0.9909508247356229</v>
+        <v>1.027936875514186</v>
       </c>
       <c r="F13">
-        <v>0.9045049520768528</v>
+        <v>1.031044423408784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030948595007254</v>
+        <v>1.03547921188909</v>
       </c>
       <c r="J13">
-        <v>1.011006485573023</v>
+        <v>1.034500336866084</v>
       </c>
       <c r="K13">
-        <v>1.016856118976229</v>
+        <v>1.036742176910268</v>
       </c>
       <c r="L13">
-        <v>1.006208846283686</v>
+        <v>1.03156978296862</v>
       </c>
       <c r="M13">
-        <v>0.9216716780492082</v>
+        <v>1.034665525257342</v>
       </c>
       <c r="N13">
-        <v>1.00715871709476</v>
+        <v>1.015421762844038</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9814308575486956</v>
+        <v>1.027982642760441</v>
       </c>
       <c r="D14">
-        <v>1.002566041694764</v>
+        <v>1.033261856536093</v>
       </c>
       <c r="E14">
-        <v>0.9917332750729118</v>
+        <v>1.028081153011494</v>
       </c>
       <c r="F14">
-        <v>0.9073542770407107</v>
+        <v>1.03144155543947</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031367808644899</v>
+        <v>1.03553498731609</v>
       </c>
       <c r="J14">
-        <v>1.011633862318944</v>
+        <v>1.034608930160971</v>
       </c>
       <c r="K14">
-        <v>1.017456633500054</v>
+        <v>1.036842872749249</v>
       </c>
       <c r="L14">
-        <v>1.006829967951997</v>
+        <v>1.031681617204468</v>
       </c>
       <c r="M14">
-        <v>0.9242834441916329</v>
+        <v>1.035029380277876</v>
       </c>
       <c r="N14">
-        <v>1.007373748033102</v>
+        <v>1.015458660397867</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9820341392337107</v>
+        <v>1.02808747474105</v>
       </c>
       <c r="D15">
-        <v>1.003030986827046</v>
+        <v>1.033343738726093</v>
       </c>
       <c r="E15">
-        <v>0.9922130505567534</v>
+        <v>1.028170053084043</v>
       </c>
       <c r="F15">
-        <v>0.9090894925087397</v>
+        <v>1.031686080275814</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031624018020486</v>
+        <v>1.035569313588672</v>
       </c>
       <c r="J15">
-        <v>1.01201815791189</v>
+        <v>1.03467582036383</v>
       </c>
       <c r="K15">
-        <v>1.017824357538461</v>
+        <v>1.036904892687102</v>
       </c>
       <c r="L15">
-        <v>1.007210573092617</v>
+        <v>1.031750512069866</v>
       </c>
       <c r="M15">
-        <v>0.9258738974313537</v>
+        <v>1.035253396272146</v>
       </c>
       <c r="N15">
-        <v>1.007505468242434</v>
+        <v>1.015481385853594</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9854996376570204</v>
+        <v>1.02869758967678</v>
       </c>
       <c r="D16">
-        <v>1.005700730180512</v>
+        <v>1.033820240078364</v>
       </c>
       <c r="E16">
-        <v>0.9949715570483865</v>
+        <v>1.028687581274301</v>
       </c>
       <c r="F16">
-        <v>0.9188989958443609</v>
+        <v>1.033106887971392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033084965118385</v>
+        <v>1.035768516325084</v>
       </c>
       <c r="J16">
-        <v>1.01422194591286</v>
+        <v>1.035064880825229</v>
       </c>
       <c r="K16">
-        <v>1.019931435847643</v>
+        <v>1.037265539313494</v>
       </c>
       <c r="L16">
-        <v>1.009395252346816</v>
+        <v>1.032151359572494</v>
       </c>
       <c r="M16">
-        <v>0.934863539463395</v>
+        <v>1.036554743356663</v>
       </c>
       <c r="N16">
-        <v>1.008260883599183</v>
+        <v>1.015613530667608</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9876348936316606</v>
+        <v>1.029080253722361</v>
       </c>
       <c r="D17">
-        <v>1.007344878577874</v>
+        <v>1.034119059914762</v>
       </c>
       <c r="E17">
-        <v>0.9966733556169896</v>
+        <v>1.029012294106269</v>
       </c>
       <c r="F17">
-        <v>0.9248166673992312</v>
+        <v>1.033996013542644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033976159373463</v>
+        <v>1.035892952091841</v>
       </c>
       <c r="J17">
-        <v>1.015576680108886</v>
+        <v>1.035308691934459</v>
       </c>
       <c r="K17">
-        <v>1.021225339507058</v>
+        <v>1.037491468476981</v>
       </c>
       <c r="L17">
-        <v>1.01073996546296</v>
+        <v>1.032402668966351</v>
       </c>
       <c r="M17">
-        <v>0.9402851899012331</v>
+        <v>1.03736885270019</v>
       </c>
       <c r="N17">
-        <v>1.008725288072989</v>
+        <v>1.015696309899057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9888671275130149</v>
+        <v>1.029303439503425</v>
       </c>
       <c r="D18">
-        <v>1.00829346165195</v>
+        <v>1.034293329144429</v>
       </c>
       <c r="E18">
-        <v>0.9976562119080097</v>
+        <v>1.029201723064678</v>
       </c>
       <c r="F18">
-        <v>0.9281905756358173</v>
+        <v>1.034513878097117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034487418188707</v>
+        <v>1.035965347044289</v>
       </c>
       <c r="J18">
-        <v>1.016357420800791</v>
+        <v>1.035450818107408</v>
       </c>
       <c r="K18">
-        <v>1.021970558410846</v>
+        <v>1.03762314330895</v>
       </c>
       <c r="L18">
-        <v>1.011515525201578</v>
+        <v>1.032549206350993</v>
       </c>
       <c r="M18">
-        <v>0.9433757351211121</v>
+        <v>1.037842931227608</v>
       </c>
       <c r="N18">
-        <v>1.008992931093518</v>
+        <v>1.015744553470585</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9892851033426907</v>
+        <v>1.029379537474183</v>
       </c>
       <c r="D19">
-        <v>1.008615186589162</v>
+        <v>1.034352745848045</v>
       </c>
       <c r="E19">
-        <v>0.9979897274810232</v>
+        <v>1.029266318462364</v>
       </c>
       <c r="F19">
-        <v>0.9293284095118559</v>
+        <v>1.034690330971317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034660338098609</v>
+        <v>1.035990000309689</v>
       </c>
       <c r="J19">
-        <v>1.016622074324075</v>
+        <v>1.035499265127425</v>
       </c>
       <c r="K19">
-        <v>1.022223094691377</v>
+        <v>1.037668023116706</v>
       </c>
       <c r="L19">
-        <v>1.011778521015271</v>
+        <v>1.03259916384641</v>
       </c>
       <c r="M19">
-        <v>0.9444179070861252</v>
+        <v>1.03800444897193</v>
       </c>
       <c r="N19">
-        <v>1.009083656238119</v>
+        <v>1.01576099648089</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874071830843701</v>
+        <v>1.029039199125516</v>
       </c>
       <c r="D20">
-        <v>1.007169567071116</v>
+        <v>1.034087002209295</v>
       </c>
       <c r="E20">
-        <v>0.9964917905735763</v>
+        <v>1.028977452451061</v>
       </c>
       <c r="F20">
-        <v>0.9241899499251812</v>
+        <v>1.033900696374348</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033881439160419</v>
+        <v>1.03587962059903</v>
       </c>
       <c r="J20">
-        <v>1.015432318497756</v>
+        <v>1.035282542082456</v>
       </c>
       <c r="K20">
-        <v>1.021087509010994</v>
+        <v>1.03746723937256</v>
       </c>
       <c r="L20">
-        <v>1.010596609396483</v>
+        <v>1.032375710729067</v>
       </c>
       <c r="M20">
-        <v>0.9397110616351578</v>
+        <v>1.037281587180891</v>
       </c>
       <c r="N20">
-        <v>1.008675800179292</v>
+        <v>1.015687432626682</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811416871896507</v>
+        <v>1.027932538338578</v>
       </c>
       <c r="D21">
-        <v>1.002343158027542</v>
+        <v>1.03322272012562</v>
       </c>
       <c r="E21">
-        <v>0.9915033493660487</v>
+        <v>1.028038665647532</v>
       </c>
       <c r="F21">
-        <v>0.9065195130839651</v>
+        <v>1.031324643633627</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031244798178546</v>
+        <v>1.03551857093155</v>
       </c>
       <c r="J21">
-        <v>1.011449588182561</v>
+        <v>1.03457695583406</v>
       </c>
       <c r="K21">
-        <v>1.017280274125654</v>
+        <v>1.036813224939371</v>
       </c>
       <c r="L21">
-        <v>1.006647501398668</v>
+        <v>1.031648686873256</v>
       </c>
       <c r="M21">
-        <v>0.9235182962999134</v>
+        <v>1.034922268920827</v>
       </c>
       <c r="N21">
-        <v>1.007310587832368</v>
+        <v>1.015447796726987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9770676870527878</v>
+        <v>1.027236584483221</v>
       </c>
       <c r="D22">
-        <v>0.9992013481546764</v>
+        <v>1.032679057313196</v>
       </c>
       <c r="E22">
-        <v>0.9882670246484482</v>
+        <v>1.027448673291266</v>
       </c>
       <c r="F22">
-        <v>0.8945393858237853</v>
+        <v>1.029697966273709</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029497496895183</v>
+        <v>1.035289871857939</v>
       </c>
       <c r="J22">
-        <v>1.008848475055651</v>
+        <v>1.034132553536413</v>
       </c>
       <c r="K22">
-        <v>1.014788643114134</v>
+        <v>1.036401056694964</v>
       </c>
       <c r="L22">
-        <v>1.004074553241757</v>
+        <v>1.031191146727816</v>
       </c>
       <c r="M22">
-        <v>0.9125357385317686</v>
+        <v>1.033431606652891</v>
       </c>
       <c r="N22">
-        <v>1.006419149912884</v>
+        <v>1.015296764038695</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9792410053141606</v>
+        <v>1.027605537765608</v>
       </c>
       <c r="D23">
-        <v>1.000877792687231</v>
+        <v>1.032967287771751</v>
       </c>
       <c r="E23">
-        <v>0.9899927854232706</v>
+        <v>1.027761415000084</v>
       </c>
       <c r="F23">
-        <v>0.9009824968979321</v>
+        <v>1.030560976867671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030432964599595</v>
+        <v>1.035411270720841</v>
       </c>
       <c r="J23">
-        <v>1.010237230151698</v>
+        <v>1.034368213240825</v>
       </c>
       <c r="K23">
-        <v>1.016119471545035</v>
+        <v>1.036619646693121</v>
       </c>
       <c r="L23">
-        <v>1.005447652237326</v>
+        <v>1.031433738640806</v>
       </c>
       <c r="M23">
-        <v>0.9184426683631232</v>
+        <v>1.034222536275855</v>
       </c>
       <c r="N23">
-        <v>1.006895071391104</v>
+        <v>1.015376863951459</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9875101163896713</v>
+        <v>1.029057749979557</v>
       </c>
       <c r="D24">
-        <v>1.007248814863078</v>
+        <v>1.034101487791277</v>
       </c>
       <c r="E24">
-        <v>0.9965738620858902</v>
+        <v>1.028993195804695</v>
       </c>
       <c r="F24">
-        <v>0.9244733752110684</v>
+        <v>1.033943768407536</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033924265474277</v>
+        <v>1.035885645102604</v>
       </c>
       <c r="J24">
-        <v>1.015497578387836</v>
+        <v>1.035294358337041</v>
       </c>
       <c r="K24">
-        <v>1.021149817891234</v>
+        <v>1.037478187789171</v>
       </c>
       <c r="L24">
-        <v>1.010661412882261</v>
+        <v>1.032387892142039</v>
       </c>
       <c r="M24">
-        <v>0.939970705858308</v>
+        <v>1.037321021114307</v>
       </c>
       <c r="N24">
-        <v>1.008698171589548</v>
+        <v>1.015691444008132</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.996591688442681</v>
+        <v>1.030742351415773</v>
       </c>
       <c r="D25">
-        <v>1.014236845694988</v>
+        <v>1.035416595577486</v>
       </c>
       <c r="E25">
-        <v>1.003830752036184</v>
+        <v>1.030423766651335</v>
       </c>
       <c r="F25">
-        <v>0.9487187586376029</v>
+        <v>1.037840129836832</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037642975893977</v>
+        <v>1.036428827894004</v>
       </c>
       <c r="J25">
-        <v>1.021234302823819</v>
+        <v>1.036365778874097</v>
       </c>
       <c r="K25">
-        <v>1.026618101108211</v>
+        <v>1.03847033027991</v>
       </c>
       <c r="L25">
-        <v>1.016369890158542</v>
+        <v>1.033493288320661</v>
       </c>
       <c r="M25">
-        <v>0.9621689807716619</v>
+        <v>1.040886261345198</v>
       </c>
       <c r="N25">
-        <v>1.010664676284675</v>
+        <v>1.016054922558215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03208554907185</v>
+        <v>1.003482705540277</v>
       </c>
       <c r="D2">
-        <v>1.036464701325385</v>
+        <v>1.019535947020009</v>
       </c>
       <c r="E2">
-        <v>1.031565745319425</v>
+        <v>1.009359313790592</v>
       </c>
       <c r="F2">
-        <v>1.040925758230683</v>
+        <v>0.9662367652690471</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036856252633784</v>
+        <v>1.040387470516413</v>
       </c>
       <c r="J2">
-        <v>1.037217709288813</v>
+        <v>1.025559746135236</v>
       </c>
       <c r="K2">
-        <v>1.039258366917583</v>
+        <v>1.030729662301228</v>
       </c>
       <c r="L2">
-        <v>1.034373494534126</v>
+        <v>1.020689780435994</v>
       </c>
       <c r="M2">
-        <v>1.043706724281097</v>
+        <v>0.9781874151895944</v>
       </c>
       <c r="N2">
-        <v>1.016343574211428</v>
+        <v>1.012146948919819</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033060605156285</v>
+        <v>1.008306220000556</v>
       </c>
       <c r="D3">
-        <v>1.037225263268745</v>
+        <v>1.023244257405223</v>
       </c>
       <c r="E3">
-        <v>1.032395492424884</v>
+        <v>1.013241238086186</v>
       </c>
       <c r="F3">
-        <v>1.043154079527121</v>
+        <v>0.9781151768447381</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037163262644874</v>
+        <v>1.042268932923568</v>
       </c>
       <c r="J3">
-        <v>1.037834782222525</v>
+        <v>1.028572982058636</v>
       </c>
       <c r="K3">
-        <v>1.039828665962222</v>
+        <v>1.033588117272113</v>
       </c>
       <c r="L3">
-        <v>1.03501177531797</v>
+        <v>1.023707452420016</v>
       </c>
       <c r="M3">
-        <v>1.04574184721182</v>
+        <v>0.989035954157936</v>
       </c>
       <c r="N3">
-        <v>1.016552437025543</v>
+        <v>1.01317905662402</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033691436801305</v>
+        <v>1.011350844709402</v>
       </c>
       <c r="D4">
-        <v>1.037717193137872</v>
+        <v>1.025584731810213</v>
       </c>
       <c r="E4">
-        <v>1.032932661753921</v>
+        <v>1.01569689021581</v>
       </c>
       <c r="F4">
-        <v>1.04459057057502</v>
+        <v>0.9854665008370055</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037360385180794</v>
+        <v>1.043439410390882</v>
       </c>
       <c r="J4">
-        <v>1.038233380728532</v>
+        <v>1.030468584944662</v>
       </c>
       <c r="K4">
-        <v>1.040196822972799</v>
+        <v>1.035383874683304</v>
       </c>
       <c r="L4">
-        <v>1.035424408265053</v>
+        <v>1.025609488200032</v>
       </c>
       <c r="M4">
-        <v>1.047053002973725</v>
+        <v>0.9957435560828355</v>
       </c>
       <c r="N4">
-        <v>1.016687252024688</v>
+        <v>1.013828055665542</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033956616738723</v>
+        <v>1.012613386607312</v>
       </c>
       <c r="D5">
-        <v>1.037923952154809</v>
+        <v>1.026555240515952</v>
       </c>
       <c r="E5">
-        <v>1.033158552096423</v>
+        <v>1.016716450862119</v>
       </c>
       <c r="F5">
-        <v>1.045193215283441</v>
+        <v>0.9884836944399418</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037442889893925</v>
+        <v>1.043920823125609</v>
       </c>
       <c r="J5">
-        <v>1.038400787423748</v>
+        <v>1.031253159401814</v>
       </c>
       <c r="K5">
-        <v>1.040351390136164</v>
+        <v>1.036126554127049</v>
       </c>
       <c r="L5">
-        <v>1.035597789361537</v>
+        <v>1.026397574681498</v>
       </c>
       <c r="M5">
-        <v>1.047602877182719</v>
+        <v>0.9984949815881237</v>
       </c>
       <c r="N5">
-        <v>1.016743848660431</v>
+        <v>1.014096591883694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034001140374573</v>
+        <v>1.012824376145059</v>
       </c>
       <c r="D6">
-        <v>1.037958665090237</v>
+        <v>1.026717425170562</v>
       </c>
       <c r="E6">
-        <v>1.033196483861783</v>
+        <v>1.016886907332869</v>
       </c>
       <c r="F6">
-        <v>1.045294329252063</v>
+        <v>0.9889861777774128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037456721402795</v>
+        <v>1.044001045320698</v>
       </c>
       <c r="J6">
-        <v>1.038428886143951</v>
+        <v>1.031384186586786</v>
       </c>
       <c r="K6">
-        <v>1.040377330587475</v>
+        <v>1.036250551774001</v>
       </c>
       <c r="L6">
-        <v>1.035626895560714</v>
+        <v>1.02652923770425</v>
       </c>
       <c r="M6">
-        <v>1.047695126023908</v>
+        <v>0.9989531106288708</v>
       </c>
       <c r="N6">
-        <v>1.016753346822515</v>
+        <v>1.014141433632451</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033694980232587</v>
+        <v>1.011367782169365</v>
       </c>
       <c r="D7">
-        <v>1.037719956050979</v>
+        <v>1.025597751666123</v>
       </c>
       <c r="E7">
-        <v>1.032935679858498</v>
+        <v>1.015710563082888</v>
       </c>
       <c r="F7">
-        <v>1.04459862803955</v>
+        <v>0.9855070964022764</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037361489047536</v>
+        <v>1.043445884198651</v>
       </c>
       <c r="J7">
-        <v>1.038235618268879</v>
+        <v>1.030479116156805</v>
       </c>
       <c r="K7">
-        <v>1.040198889115286</v>
+        <v>1.035393845771794</v>
       </c>
       <c r="L7">
-        <v>1.035426725343931</v>
+        <v>1.025620063222002</v>
       </c>
       <c r="M7">
-        <v>1.047060355631539</v>
+        <v>0.9957805820739845</v>
       </c>
       <c r="N7">
-        <v>1.016688008584229</v>
+        <v>1.013831660507347</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032415094098977</v>
+        <v>1.005129245405262</v>
       </c>
       <c r="D8">
-        <v>1.036721779565704</v>
+        <v>1.02080186603327</v>
       </c>
       <c r="E8">
-        <v>1.031846107059873</v>
+        <v>1.010683286800897</v>
       </c>
       <c r="F8">
-        <v>1.04167996375131</v>
+        <v>0.9703248939116058</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036960326539478</v>
+        <v>1.041033416835747</v>
       </c>
       <c r="J8">
-        <v>1.037426395125926</v>
+        <v>1.026589698243035</v>
       </c>
       <c r="K8">
-        <v>1.039451281748593</v>
+        <v>1.031707246449652</v>
       </c>
       <c r="L8">
-        <v>1.034589282998067</v>
+        <v>1.021720464904141</v>
       </c>
       <c r="M8">
-        <v>1.044395703054612</v>
+        <v>0.9819224244872452</v>
       </c>
       <c r="N8">
-        <v>1.016414229481609</v>
+        <v>1.012499788657065</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03015899758677</v>
+        <v>0.9935046627524287</v>
       </c>
       <c r="D9">
-        <v>1.034961266326452</v>
+        <v>1.011862184988539</v>
       </c>
       <c r="E9">
-        <v>1.029928172868494</v>
+        <v>1.001360375789359</v>
       </c>
       <c r="F9">
-        <v>1.036494223633649</v>
+        <v>0.9406372286531685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036241613162507</v>
+        <v>1.036392008185634</v>
       </c>
       <c r="J9">
-        <v>1.035995125924091</v>
+        <v>1.019288891694939</v>
       </c>
       <c r="K9">
-        <v>1.038127236314369</v>
+        <v>1.02476569416752</v>
       </c>
       <c r="L9">
-        <v>1.033110685784543</v>
+        <v>1.014431420336325</v>
       </c>
       <c r="M9">
-        <v>1.03965519003275</v>
+        <v>0.9547729183511882</v>
       </c>
       <c r="N9">
-        <v>1.015929235084259</v>
+        <v>1.009997843061781</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028654342798618</v>
+        <v>0.9852564968386398</v>
       </c>
       <c r="D10">
-        <v>1.033786466836914</v>
+        <v>1.00551347553363</v>
       </c>
       <c r="E10">
-        <v>1.028650889568175</v>
+        <v>0.9947778792618654</v>
       </c>
       <c r="F10">
-        <v>1.033006306175898</v>
+        <v>0.9182192274949644</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035754428627578</v>
+        <v>1.032983056718062</v>
       </c>
       <c r="J10">
-        <v>1.035037316330466</v>
+        <v>1.014067533381776</v>
       </c>
       <c r="K10">
-        <v>1.03723999279155</v>
+        <v>1.019783890950609</v>
       </c>
       <c r="L10">
-        <v>1.032122952792801</v>
+        <v>1.009242065212886</v>
       </c>
       <c r="M10">
-        <v>1.036462635075604</v>
+        <v>0.9342406752187581</v>
       </c>
       <c r="N10">
-        <v>1.015604170377068</v>
+        <v>1.008207951797559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028002653662186</v>
+        <v>0.9815461967259588</v>
       </c>
       <c r="D11">
-        <v>1.033277486839218</v>
+        <v>1.002654937580667</v>
       </c>
       <c r="E11">
-        <v>1.028098122217212</v>
+        <v>0.9918249918261044</v>
       </c>
       <c r="F11">
-        <v>1.031488240686428</v>
+        <v>0.9076866833865216</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035541541923221</v>
+        <v>1.031416836308006</v>
       </c>
       <c r="J11">
-        <v>1.03462169944087</v>
+        <v>1.011707349630234</v>
       </c>
       <c r="K11">
-        <v>1.036854712634316</v>
+        <v>1.017526958749203</v>
       </c>
       <c r="L11">
-        <v>1.031694768680727</v>
+        <v>1.006902741280954</v>
       </c>
       <c r="M11">
-        <v>1.035072151067889</v>
+        <v>0.9245881246824882</v>
       </c>
       <c r="N11">
-        <v>1.015462998804442</v>
+        <v>1.007398936116932</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027760561118529</v>
+        <v>0.9801450047169115</v>
       </c>
       <c r="D12">
-        <v>1.033088385147969</v>
+        <v>1.001574831639608</v>
       </c>
       <c r="E12">
-        <v>1.027892844847037</v>
+        <v>0.9907110847150545</v>
       </c>
       <c r="F12">
-        <v>1.030923155361263</v>
+        <v>0.9036270191985953</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035462173916887</v>
+        <v>1.030819806714944</v>
       </c>
       <c r="J12">
-        <v>1.034467187467568</v>
+        <v>1.010814099745954</v>
       </c>
       <c r="K12">
-        <v>1.036711436041775</v>
+        <v>1.016671922427081</v>
       </c>
       <c r="L12">
-        <v>1.031535647562483</v>
+        <v>1.00601843599007</v>
       </c>
       <c r="M12">
-        <v>1.034554410963291</v>
+        <v>0.920866906461703</v>
       </c>
       <c r="N12">
-        <v>1.015410498498324</v>
+        <v>1.007092779527486</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027812492001655</v>
+        <v>0.980446646735852</v>
       </c>
       <c r="D13">
-        <v>1.033128950106709</v>
+        <v>1.001807381651564</v>
       </c>
       <c r="E13">
-        <v>1.027936875514186</v>
+        <v>0.9909508247356237</v>
       </c>
       <c r="F13">
-        <v>1.031044423408784</v>
+        <v>0.9045049520768524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03547921188909</v>
+        <v>1.030948595007255</v>
       </c>
       <c r="J13">
-        <v>1.034500336866084</v>
+        <v>1.011006485573024</v>
       </c>
       <c r="K13">
-        <v>1.036742176910268</v>
+        <v>1.01685611897623</v>
       </c>
       <c r="L13">
-        <v>1.03156978296862</v>
+        <v>1.006208846283687</v>
       </c>
       <c r="M13">
-        <v>1.034665525257342</v>
+        <v>0.9216716780492081</v>
       </c>
       <c r="N13">
-        <v>1.015421762844038</v>
+        <v>1.00715871709476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027982642760441</v>
+        <v>0.9814308575486947</v>
       </c>
       <c r="D14">
-        <v>1.033261856536093</v>
+        <v>1.002566041694763</v>
       </c>
       <c r="E14">
-        <v>1.028081153011494</v>
+        <v>0.9917332750729111</v>
       </c>
       <c r="F14">
-        <v>1.03144155543947</v>
+        <v>0.9073542770407098</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03553498731609</v>
+        <v>1.031367808644898</v>
       </c>
       <c r="J14">
-        <v>1.034608930160971</v>
+        <v>1.011633862318943</v>
       </c>
       <c r="K14">
-        <v>1.036842872749249</v>
+        <v>1.017456633500053</v>
       </c>
       <c r="L14">
-        <v>1.031681617204468</v>
+        <v>1.006829967951996</v>
       </c>
       <c r="M14">
-        <v>1.035029380277876</v>
+        <v>0.924283444191632</v>
       </c>
       <c r="N14">
-        <v>1.015458660397867</v>
+        <v>1.007373748033102</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02808747474105</v>
+        <v>0.9820341392337109</v>
       </c>
       <c r="D15">
-        <v>1.033343738726093</v>
+        <v>1.003030986827046</v>
       </c>
       <c r="E15">
-        <v>1.028170053084043</v>
+        <v>0.9922130505567532</v>
       </c>
       <c r="F15">
-        <v>1.031686080275814</v>
+        <v>0.9090894925087388</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035569313588672</v>
+        <v>1.031624018020486</v>
       </c>
       <c r="J15">
-        <v>1.03467582036383</v>
+        <v>1.01201815791189</v>
       </c>
       <c r="K15">
-        <v>1.036904892687102</v>
+        <v>1.017824357538461</v>
       </c>
       <c r="L15">
-        <v>1.031750512069866</v>
+        <v>1.007210573092617</v>
       </c>
       <c r="M15">
-        <v>1.035253396272146</v>
+        <v>0.925873897431353</v>
       </c>
       <c r="N15">
-        <v>1.015481385853594</v>
+        <v>1.007505468242434</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02869758967678</v>
+        <v>0.9854996376570204</v>
       </c>
       <c r="D16">
-        <v>1.033820240078364</v>
+        <v>1.005700730180512</v>
       </c>
       <c r="E16">
-        <v>1.028687581274301</v>
+        <v>0.9949715570483864</v>
       </c>
       <c r="F16">
-        <v>1.033106887971392</v>
+        <v>0.9188989958443616</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035768516325084</v>
+        <v>1.033084965118385</v>
       </c>
       <c r="J16">
-        <v>1.035064880825229</v>
+        <v>1.01422194591286</v>
       </c>
       <c r="K16">
-        <v>1.037265539313494</v>
+        <v>1.019931435847643</v>
       </c>
       <c r="L16">
-        <v>1.032151359572494</v>
+        <v>1.009395252346816</v>
       </c>
       <c r="M16">
-        <v>1.036554743356663</v>
+        <v>0.9348635394633956</v>
       </c>
       <c r="N16">
-        <v>1.015613530667608</v>
+        <v>1.008260883599183</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029080253722361</v>
+        <v>0.9876348936316607</v>
       </c>
       <c r="D17">
-        <v>1.034119059914762</v>
+        <v>1.007344878577875</v>
       </c>
       <c r="E17">
-        <v>1.029012294106269</v>
+        <v>0.9966733556169896</v>
       </c>
       <c r="F17">
-        <v>1.033996013542644</v>
+        <v>0.9248166673992317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035892952091841</v>
+        <v>1.033976159373463</v>
       </c>
       <c r="J17">
-        <v>1.035308691934459</v>
+        <v>1.015576680108886</v>
       </c>
       <c r="K17">
-        <v>1.037491468476981</v>
+        <v>1.021225339507058</v>
       </c>
       <c r="L17">
-        <v>1.032402668966351</v>
+        <v>1.01073996546296</v>
       </c>
       <c r="M17">
-        <v>1.03736885270019</v>
+        <v>0.9402851899012337</v>
       </c>
       <c r="N17">
-        <v>1.015696309899057</v>
+        <v>1.008725288072989</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029303439503425</v>
+        <v>0.9888671275130153</v>
       </c>
       <c r="D18">
-        <v>1.034293329144429</v>
+        <v>1.00829346165195</v>
       </c>
       <c r="E18">
-        <v>1.029201723064678</v>
+        <v>0.99765621190801</v>
       </c>
       <c r="F18">
-        <v>1.034513878097117</v>
+        <v>0.9281905756358181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035965347044289</v>
+        <v>1.034487418188708</v>
       </c>
       <c r="J18">
-        <v>1.035450818107408</v>
+        <v>1.016357420800791</v>
       </c>
       <c r="K18">
-        <v>1.03762314330895</v>
+        <v>1.021970558410846</v>
       </c>
       <c r="L18">
-        <v>1.032549206350993</v>
+        <v>1.011515525201578</v>
       </c>
       <c r="M18">
-        <v>1.037842931227608</v>
+        <v>0.9433757351211127</v>
       </c>
       <c r="N18">
-        <v>1.015744553470585</v>
+        <v>1.008992931093518</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029379537474183</v>
+        <v>0.9892851033426904</v>
       </c>
       <c r="D19">
-        <v>1.034352745848045</v>
+        <v>1.008615186589162</v>
       </c>
       <c r="E19">
-        <v>1.029266318462364</v>
+        <v>0.9979897274810231</v>
       </c>
       <c r="F19">
-        <v>1.034690330971317</v>
+        <v>0.9293284095118542</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035990000309689</v>
+        <v>1.034660338098609</v>
       </c>
       <c r="J19">
-        <v>1.035499265127425</v>
+        <v>1.016622074324075</v>
       </c>
       <c r="K19">
-        <v>1.037668023116706</v>
+        <v>1.022223094691377</v>
       </c>
       <c r="L19">
-        <v>1.03259916384641</v>
+        <v>1.011778521015271</v>
       </c>
       <c r="M19">
-        <v>1.03800444897193</v>
+        <v>0.9444179070861235</v>
       </c>
       <c r="N19">
-        <v>1.01576099648089</v>
+        <v>1.009083656238119</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029039199125516</v>
+        <v>0.987407183084369</v>
       </c>
       <c r="D20">
-        <v>1.034087002209295</v>
+        <v>1.007169567071116</v>
       </c>
       <c r="E20">
-        <v>1.028977452451061</v>
+        <v>0.9964917905735755</v>
       </c>
       <c r="F20">
-        <v>1.033900696374348</v>
+        <v>0.9241899499251811</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03587962059903</v>
+        <v>1.033881439160419</v>
       </c>
       <c r="J20">
-        <v>1.035282542082456</v>
+        <v>1.015432318497755</v>
       </c>
       <c r="K20">
-        <v>1.03746723937256</v>
+        <v>1.021087509010994</v>
       </c>
       <c r="L20">
-        <v>1.032375710729067</v>
+        <v>1.010596609396482</v>
       </c>
       <c r="M20">
-        <v>1.037281587180891</v>
+        <v>0.9397110616351576</v>
       </c>
       <c r="N20">
-        <v>1.015687432626682</v>
+        <v>1.008675800179291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027932538338578</v>
+        <v>0.9811416871896511</v>
       </c>
       <c r="D21">
-        <v>1.03322272012562</v>
+        <v>1.002343158027542</v>
       </c>
       <c r="E21">
-        <v>1.028038665647532</v>
+        <v>0.9915033493660491</v>
       </c>
       <c r="F21">
-        <v>1.031324643633627</v>
+        <v>0.9065195130839653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03551857093155</v>
+        <v>1.031244798178546</v>
       </c>
       <c r="J21">
-        <v>1.03457695583406</v>
+        <v>1.011449588182562</v>
       </c>
       <c r="K21">
-        <v>1.036813224939371</v>
+        <v>1.017280274125655</v>
       </c>
       <c r="L21">
-        <v>1.031648686873256</v>
+        <v>1.006647501398668</v>
       </c>
       <c r="M21">
-        <v>1.034922268920827</v>
+        <v>0.9235182962999138</v>
       </c>
       <c r="N21">
-        <v>1.015447796726987</v>
+        <v>1.007310587832368</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027236584483221</v>
+        <v>0.9770676870527878</v>
       </c>
       <c r="D22">
-        <v>1.032679057313196</v>
+        <v>0.9992013481546768</v>
       </c>
       <c r="E22">
-        <v>1.027448673291266</v>
+        <v>0.9882670246484483</v>
       </c>
       <c r="F22">
-        <v>1.029697966273709</v>
+        <v>0.8945393858237864</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035289871857939</v>
+        <v>1.029497496895183</v>
       </c>
       <c r="J22">
-        <v>1.034132553536413</v>
+        <v>1.008848475055651</v>
       </c>
       <c r="K22">
-        <v>1.036401056694964</v>
+        <v>1.014788643114135</v>
       </c>
       <c r="L22">
-        <v>1.031191146727816</v>
+        <v>1.004074553241757</v>
       </c>
       <c r="M22">
-        <v>1.033431606652891</v>
+        <v>0.9125357385317696</v>
       </c>
       <c r="N22">
-        <v>1.015296764038695</v>
+        <v>1.006419149912884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027605537765608</v>
+        <v>0.979241005314162</v>
       </c>
       <c r="D23">
-        <v>1.032967287771751</v>
+        <v>1.000877792687232</v>
       </c>
       <c r="E23">
-        <v>1.027761415000084</v>
+        <v>0.9899927854232716</v>
       </c>
       <c r="F23">
-        <v>1.030560976867671</v>
+        <v>0.9009824968979319</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035411270720841</v>
+        <v>1.030432964599595</v>
       </c>
       <c r="J23">
-        <v>1.034368213240825</v>
+        <v>1.010237230151699</v>
       </c>
       <c r="K23">
-        <v>1.036619646693121</v>
+        <v>1.016119471545036</v>
       </c>
       <c r="L23">
-        <v>1.031433738640806</v>
+        <v>1.005447652237327</v>
       </c>
       <c r="M23">
-        <v>1.034222536275855</v>
+        <v>0.9184426683631232</v>
       </c>
       <c r="N23">
-        <v>1.015376863951459</v>
+        <v>1.006895071391104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029057749979557</v>
+        <v>0.9875101163896713</v>
       </c>
       <c r="D24">
-        <v>1.034101487791277</v>
+        <v>1.007248814863077</v>
       </c>
       <c r="E24">
-        <v>1.028993195804695</v>
+        <v>0.9965738620858898</v>
       </c>
       <c r="F24">
-        <v>1.033943768407536</v>
+        <v>0.9244733752110681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035885645102604</v>
+        <v>1.033924265474277</v>
       </c>
       <c r="J24">
-        <v>1.035294358337041</v>
+        <v>1.015497578387835</v>
       </c>
       <c r="K24">
-        <v>1.037478187789171</v>
+        <v>1.021149817891234</v>
       </c>
       <c r="L24">
-        <v>1.032387892142039</v>
+        <v>1.010661412882261</v>
       </c>
       <c r="M24">
-        <v>1.037321021114307</v>
+        <v>0.9399707058583078</v>
       </c>
       <c r="N24">
-        <v>1.015691444008132</v>
+        <v>1.008698171589548</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030742351415773</v>
+        <v>0.9965916884426809</v>
       </c>
       <c r="D25">
-        <v>1.035416595577486</v>
+        <v>1.014236845694988</v>
       </c>
       <c r="E25">
-        <v>1.030423766651335</v>
+        <v>1.003830752036184</v>
       </c>
       <c r="F25">
-        <v>1.037840129836832</v>
+        <v>0.9487187586376038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036428827894004</v>
+        <v>1.037642975893977</v>
       </c>
       <c r="J25">
-        <v>1.036365778874097</v>
+        <v>1.021234302823819</v>
       </c>
       <c r="K25">
-        <v>1.03847033027991</v>
+        <v>1.026618101108211</v>
       </c>
       <c r="L25">
-        <v>1.033493288320661</v>
+        <v>1.016369890158542</v>
       </c>
       <c r="M25">
-        <v>1.040886261345198</v>
+        <v>0.9621689807716627</v>
       </c>
       <c r="N25">
-        <v>1.016054922558215</v>
+        <v>1.010664676284675</v>
       </c>
     </row>
   </sheetData>
